--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeShijie\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{34A7CA69-42CF-4468-AE01-1AB98C065EEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6731C-BBCA-49AD-8D4A-F9D008FC3113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" xr2:uid="{1E0F8D2F-2B28-4650-9E1B-32F3BF0D4E87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺仕杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED680F-63FD-4366-8995-A90266775D0F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,6 +446,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
